--- a/Code/Results/Cases/Case_4_157/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_157/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7183395752500417</v>
+        <v>0.4097860205177142</v>
       </c>
       <c r="C2">
-        <v>0.2105054312881407</v>
+        <v>0.1508574413176973</v>
       </c>
       <c r="D2">
-        <v>0.4165579963716368</v>
+        <v>0.6203738845577647</v>
       </c>
       <c r="E2">
-        <v>0.1465468777654131</v>
+        <v>0.2340256789016379</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.924416608830143</v>
+        <v>2.36627318573656</v>
       </c>
       <c r="H2">
-        <v>1.198791556737234</v>
+        <v>1.918577420600258</v>
       </c>
       <c r="I2">
-        <v>1.213063770946434</v>
+        <v>1.68155054552291</v>
       </c>
       <c r="J2">
-        <v>0.06055375758183246</v>
+        <v>0.1077126063114058</v>
       </c>
       <c r="K2">
-        <v>0.9122932571272884</v>
+        <v>0.5563252529647684</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3825940625768141</v>
+        <v>0.3860665536174892</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6215943651116049</v>
+        <v>0.3869794967756945</v>
       </c>
       <c r="C3">
-        <v>0.183382323652566</v>
+        <v>0.1448246039694112</v>
       </c>
       <c r="D3">
-        <v>0.383079922468994</v>
+        <v>0.6151783919307405</v>
       </c>
       <c r="E3">
-        <v>0.1360354644524442</v>
+        <v>0.2325711805172332</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.815367042534263</v>
+        <v>2.343667298821401</v>
       </c>
       <c r="H3">
-        <v>1.155362555519162</v>
+        <v>1.912888664632703</v>
       </c>
       <c r="I3">
-        <v>1.164649478684055</v>
+        <v>1.672644897987176</v>
       </c>
       <c r="J3">
-        <v>0.05717969886995178</v>
+        <v>0.1073769678851022</v>
       </c>
       <c r="K3">
-        <v>0.7902059885607002</v>
+        <v>0.5280216225579863</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3379318007004954</v>
+        <v>0.3771023688069874</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5628045260712611</v>
+        <v>0.3732552226685755</v>
       </c>
       <c r="C4">
-        <v>0.1670069432540089</v>
+        <v>0.141219158328056</v>
       </c>
       <c r="D4">
-        <v>0.3630933846320232</v>
+        <v>0.6122727078315364</v>
       </c>
       <c r="E4">
-        <v>0.129782060485784</v>
+        <v>0.2317792434477326</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.750991866978183</v>
+        <v>2.330684751943863</v>
       </c>
       <c r="H4">
-        <v>1.130114774013407</v>
+        <v>1.910001162740258</v>
       </c>
       <c r="I4">
-        <v>1.136384970135722</v>
+        <v>1.667718394629865</v>
       </c>
       <c r="J4">
-        <v>0.05518916796980022</v>
+        <v>0.1072123384018617</v>
       </c>
       <c r="K4">
-        <v>0.7161420525563074</v>
+        <v>0.5110197940196031</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3109981716713435</v>
+        <v>0.3718284715613791</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5389806396520669</v>
+        <v>0.3677327502520598</v>
       </c>
       <c r="C5">
-        <v>0.160395840632205</v>
+        <v>0.139774697581359</v>
       </c>
       <c r="D5">
-        <v>0.3550813540132225</v>
+        <v>0.6111601645680764</v>
       </c>
       <c r="E5">
-        <v>0.1272806763091978</v>
+        <v>0.2314819642676014</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.725361372050628</v>
+        <v>2.325619608601144</v>
       </c>
       <c r="H5">
-        <v>1.120161392126107</v>
+        <v>1.90897668212628</v>
       </c>
       <c r="I5">
-        <v>1.125211224045337</v>
+        <v>1.665846844577281</v>
       </c>
       <c r="J5">
-        <v>0.05439710370950834</v>
+        <v>0.1071556774615772</v>
       </c>
       <c r="K5">
-        <v>0.6861578327802249</v>
+        <v>0.5041861982276288</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3001337313848325</v>
+        <v>0.3697372199704034</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5350321892163095</v>
+        <v>0.3668199962817482</v>
       </c>
       <c r="C6">
-        <v>0.1593015936019668</v>
+        <v>0.1395363419054831</v>
       </c>
       <c r="D6">
-        <v>0.3537586808811568</v>
+        <v>0.6109797500559893</v>
       </c>
       <c r="E6">
-        <v>0.1268680590719171</v>
+        <v>0.2314341382483853</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.721140566363161</v>
+        <v>2.3247921458794</v>
       </c>
       <c r="H6">
-        <v>1.118528297414585</v>
+        <v>1.90881575936524</v>
       </c>
       <c r="I6">
-        <v>1.12337597025234</v>
+        <v>1.665544287262961</v>
       </c>
       <c r="J6">
-        <v>0.05426669846444909</v>
+        <v>0.107146898809301</v>
       </c>
       <c r="K6">
-        <v>0.6811901065050137</v>
+        <v>0.5030572116770173</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2983360881504282</v>
+        <v>0.3693934675070949</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5624827145284712</v>
+        <v>0.3731804599516408</v>
       </c>
       <c r="C7">
-        <v>0.1669175427386165</v>
+        <v>0.1411995775150956</v>
       </c>
       <c r="D7">
-        <v>0.3629848078426932</v>
+        <v>0.6122574139399575</v>
       </c>
       <c r="E7">
-        <v>0.1297481404220591</v>
+        <v>0.2317751312087175</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.750643822960853</v>
+        <v>2.33061552968627</v>
       </c>
       <c r="H7">
-        <v>1.129979208666612</v>
+        <v>1.909986730044693</v>
       </c>
       <c r="I7">
-        <v>1.136232912944301</v>
+        <v>1.667692603636659</v>
       </c>
       <c r="J7">
-        <v>0.0551784102792432</v>
+        <v>0.107211532030103</v>
       </c>
       <c r="K7">
-        <v>0.7157369116248731</v>
+        <v>0.5109272498839914</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3108512146471654</v>
+        <v>0.3718000337147913</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6848419984018506</v>
+        <v>0.4018644809007412</v>
       </c>
       <c r="C8">
-        <v>0.2010906271133592</v>
+        <v>0.1487567976642623</v>
       </c>
       <c r="D8">
-        <v>0.4048901040125941</v>
+        <v>0.6185234780629969</v>
       </c>
       <c r="E8">
-        <v>0.1428786995257205</v>
+        <v>0.2335031838922319</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.886251640918573</v>
+        <v>2.358292166166649</v>
       </c>
       <c r="H8">
-        <v>1.183509741497801</v>
+        <v>1.916490255388055</v>
       </c>
       <c r="I8">
-        <v>1.196052505678857</v>
+        <v>1.678367373460496</v>
       </c>
       <c r="J8">
-        <v>0.05937271897488472</v>
+        <v>0.1075882758524038</v>
       </c>
       <c r="K8">
-        <v>0.8699934128854352</v>
+        <v>0.5464879974888959</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3670856343161617</v>
+        <v>0.3829279498500924</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9306537905091261</v>
+        <v>0.4603262308855847</v>
       </c>
       <c r="C9">
-        <v>0.2707059985245905</v>
+        <v>0.1643628578461005</v>
       </c>
       <c r="D9">
-        <v>0.4920955951833719</v>
+        <v>0.6330672387528011</v>
       </c>
       <c r="E9">
-        <v>0.1703926443488726</v>
+        <v>0.2376942717069355</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.174927675943906</v>
+        <v>2.419708319390793</v>
       </c>
       <c r="H9">
-        <v>1.300771551161318</v>
+        <v>1.934051327117288</v>
       </c>
       <c r="I9">
-        <v>1.326102262245016</v>
+        <v>1.703607066646597</v>
       </c>
       <c r="J9">
-        <v>0.06830610637149448</v>
+        <v>0.1086560096811908</v>
       </c>
       <c r="K9">
-        <v>1.181016050147775</v>
+        <v>0.6192137078429312</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4818217305965362</v>
+        <v>0.4065762814553722</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.116370523801379</v>
+        <v>0.5046304243093118</v>
       </c>
       <c r="C10">
-        <v>0.3240420414788048</v>
+        <v>0.1763135471478847</v>
       </c>
       <c r="D10">
-        <v>0.5600138754020634</v>
+        <v>0.645129566068988</v>
       </c>
       <c r="E10">
-        <v>0.1919465851120066</v>
+        <v>0.2412632340024388</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.40433199567596</v>
+        <v>2.469220564738833</v>
       </c>
       <c r="H10">
-        <v>1.395996268909641</v>
+        <v>1.949893128302875</v>
       </c>
       <c r="I10">
-        <v>1.431155504586783</v>
+        <v>1.72479215044217</v>
       </c>
       <c r="J10">
-        <v>0.07539950482593127</v>
+        <v>0.1096412642205138</v>
       </c>
       <c r="K10">
-        <v>1.416863752330528</v>
+        <v>0.674478680470969</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5697221820121285</v>
+        <v>0.4250673935122435</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.202351421753463</v>
+        <v>0.525080375615147</v>
       </c>
       <c r="C11">
-        <v>0.3489318522640872</v>
+        <v>0.1818568208604177</v>
       </c>
       <c r="D11">
-        <v>0.5919407374688319</v>
+        <v>0.6509165672180188</v>
       </c>
       <c r="E11">
-        <v>0.2021080617362827</v>
+        <v>0.2429933822659365</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.513305992115534</v>
+        <v>2.492706316598998</v>
       </c>
       <c r="H11">
-        <v>1.441677906063376</v>
+        <v>1.957740439210909</v>
       </c>
       <c r="I11">
-        <v>1.481440358563631</v>
+        <v>1.735007073429756</v>
       </c>
       <c r="J11">
-        <v>0.07876589768864761</v>
+        <v>0.1101331562459791</v>
       </c>
       <c r="K11">
-        <v>1.526281879507167</v>
+        <v>0.7000208891273587</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6107120597144444</v>
+        <v>0.4337228402673006</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.235160622238965</v>
+        <v>0.5328667552636261</v>
       </c>
       <c r="C12">
-        <v>0.35846111029187</v>
+        <v>0.1839713552601552</v>
       </c>
       <c r="D12">
-        <v>0.604196630609863</v>
+        <v>0.6531510676435062</v>
       </c>
       <c r="E12">
-        <v>0.2060132276541609</v>
+        <v>0.2436638778091691</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.555314387587998</v>
+        <v>2.501738667636857</v>
       </c>
       <c r="H12">
-        <v>1.459352469773393</v>
+        <v>1.960804271905914</v>
       </c>
       <c r="I12">
-        <v>1.500880512988417</v>
+        <v>1.738958507642934</v>
       </c>
       <c r="J12">
-        <v>0.08006298438643</v>
+        <v>0.1103257084417564</v>
       </c>
       <c r="K12">
-        <v>1.568070953785764</v>
+        <v>0.7097509294144686</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6263983845158947</v>
+        <v>0.4370355052211892</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.228082859344454</v>
+        <v>0.5311879337166374</v>
       </c>
       <c r="C13">
-        <v>0.3564039508489714</v>
+        <v>0.1835152659159576</v>
       </c>
       <c r="D13">
-        <v>0.6015494261966126</v>
+        <v>0.6526679119235439</v>
       </c>
       <c r="E13">
-        <v>0.2051695331814756</v>
+        <v>0.2435187930351432</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.546232779955602</v>
+        <v>2.499787209100418</v>
       </c>
       <c r="H13">
-        <v>1.455528603694972</v>
+        <v>1.960140317612769</v>
       </c>
       <c r="I13">
-        <v>1.496675338550006</v>
+        <v>1.738103789347022</v>
       </c>
       <c r="J13">
-        <v>0.07978260340267695</v>
+        <v>0.1102839594228087</v>
       </c>
       <c r="K13">
-        <v>1.55905432283825</v>
+        <v>0.7076528226932339</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6230124034456068</v>
+        <v>0.4363205055787915</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.205045430398343</v>
+        <v>0.5257201160245302</v>
       </c>
       <c r="C14">
-        <v>0.3497136605336095</v>
+        <v>0.1820304755929101</v>
       </c>
       <c r="D14">
-        <v>0.5929456049379382</v>
+        <v>0.6510995374616471</v>
       </c>
       <c r="E14">
-        <v>0.2024281586508678</v>
+        <v>0.2430482372058549</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.516746693749724</v>
+        <v>2.493446629267254</v>
       </c>
       <c r="H14">
-        <v>1.443124249503569</v>
+        <v>1.957990653747629</v>
       </c>
       <c r="I14">
-        <v>1.483031487381268</v>
+        <v>1.735330490468641</v>
       </c>
       <c r="J14">
-        <v>0.07887214910937956</v>
+        <v>0.1101488717014192</v>
       </c>
       <c r="K14">
-        <v>1.529712485316935</v>
+        <v>0.7008202279600084</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6119991672843241</v>
+        <v>0.4339946731315294</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.19096800186</v>
+        <v>0.5223764420962027</v>
       </c>
       <c r="C15">
-        <v>0.3456296484397683</v>
+        <v>0.1811230079790676</v>
       </c>
       <c r="D15">
-        <v>0.5876976742450495</v>
+        <v>0.6501444736605606</v>
       </c>
       <c r="E15">
-        <v>0.2007566288016918</v>
+        <v>0.2427620039446694</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.498784746833024</v>
+        <v>2.489580930168984</v>
       </c>
       <c r="H15">
-        <v>1.435576312506612</v>
+        <v>1.956685935584744</v>
       </c>
       <c r="I15">
-        <v>1.474727354243484</v>
+        <v>1.733642613959233</v>
       </c>
       <c r="J15">
-        <v>0.07831744480856173</v>
+        <v>0.1100669448574081</v>
       </c>
       <c r="K15">
-        <v>1.51178749328065</v>
+        <v>0.6966425876318851</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6052752743888306</v>
+        <v>0.4325745957857805</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.110784496482353</v>
+        <v>0.5032999143734571</v>
       </c>
       <c r="C16">
-        <v>0.3224292030223523</v>
+        <v>0.1759534356480685</v>
       </c>
       <c r="D16">
-        <v>0.5579495896831475</v>
+        <v>0.6447574026468601</v>
       </c>
       <c r="E16">
-        <v>0.1912901793129294</v>
+        <v>0.241152309612481</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.397309717790819</v>
+        <v>2.467705116810066</v>
       </c>
       <c r="H16">
-        <v>1.393061426023195</v>
+        <v>1.94939318938043</v>
       </c>
       <c r="I16">
-        <v>1.427922777925787</v>
+        <v>1.724136222559025</v>
       </c>
       <c r="J16">
-        <v>0.07518249779404584</v>
+        <v>0.1096099971743811</v>
       </c>
       <c r="K16">
-        <v>1.409759916772941</v>
+        <v>0.6728175213793861</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5670652586015805</v>
+        <v>0.4245066431591056</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.062001716310334</v>
+        <v>0.4916727577701749</v>
       </c>
       <c r="C17">
-        <v>0.30836648658169</v>
+        <v>0.1728094731599299</v>
       </c>
       <c r="D17">
-        <v>0.5399760931972821</v>
+        <v>0.6415293768519348</v>
       </c>
       <c r="E17">
-        <v>0.1855781903513076</v>
+        <v>0.2401921162199017</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.33629393870001</v>
+        <v>2.454531799089864</v>
       </c>
       <c r="H17">
-        <v>1.367609799232923</v>
+        <v>1.945083505773823</v>
       </c>
       <c r="I17">
-        <v>1.399875774701954</v>
+        <v>1.718452461797384</v>
       </c>
       <c r="J17">
-        <v>0.07329657907333598</v>
+        <v>0.1093408658583996</v>
       </c>
       <c r="K17">
-        <v>1.347747831285943</v>
+        <v>0.6583045255649154</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5438953204213419</v>
+        <v>0.4196196333788151</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.034081820203539</v>
+        <v>0.4850129681661599</v>
       </c>
       <c r="C18">
-        <v>0.300336086716726</v>
+        <v>0.1710112026275397</v>
       </c>
       <c r="D18">
-        <v>0.5297340508620607</v>
+        <v>0.639700920373599</v>
       </c>
       <c r="E18">
-        <v>0.18232596816366</v>
+        <v>0.2396498731850869</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.301628700860761</v>
+        <v>2.447045414080151</v>
       </c>
       <c r="H18">
-        <v>1.353190793479541</v>
+        <v>1.942664999514705</v>
       </c>
       <c r="I18">
-        <v>1.383976194067955</v>
+        <v>1.715237679479884</v>
       </c>
       <c r="J18">
-        <v>0.07222483904767074</v>
+        <v>0.1091901813845553</v>
       </c>
       <c r="K18">
-        <v>1.312277408631104</v>
+        <v>0.6499948640859543</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5306617285656614</v>
+        <v>0.4168316980339384</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.024651435338143</v>
+        <v>0.4827628631303185</v>
       </c>
       <c r="C19">
-        <v>0.2976267110900324</v>
+        <v>0.1704040642438258</v>
       </c>
       <c r="D19">
-        <v>0.5262822201231643</v>
+        <v>0.6390866836469513</v>
       </c>
       <c r="E19">
-        <v>0.181230344807382</v>
+        <v>0.2394680026406846</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.289963136725703</v>
+        <v>2.4445261936836</v>
       </c>
       <c r="H19">
-        <v>1.34834552665032</v>
+        <v>1.941856490702349</v>
       </c>
       <c r="I19">
-        <v>1.378631628230977</v>
+        <v>1.71415854120832</v>
       </c>
       <c r="J19">
-        <v>0.07186413285914739</v>
+        <v>0.1091398685788008</v>
       </c>
       <c r="K19">
-        <v>1.300300216782091</v>
+        <v>0.6471878538652049</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5261964806439607</v>
+        <v>0.4158916920895805</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.067180133857903</v>
+        <v>0.4929076075096077</v>
       </c>
       <c r="C20">
-        <v>0.309857377459565</v>
+        <v>0.1731431124534311</v>
       </c>
       <c r="D20">
-        <v>0.5418793610702437</v>
+        <v>0.6418700853462269</v>
       </c>
       <c r="E20">
-        <v>0.1861827677023129</v>
+        <v>0.2402932919145684</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.342744185393059</v>
+        <v>2.455924745721404</v>
       </c>
       <c r="H20">
-        <v>1.37029613934294</v>
+        <v>1.945536036527869</v>
       </c>
       <c r="I20">
-        <v>1.402837108660492</v>
+        <v>1.719051879728667</v>
       </c>
       <c r="J20">
-        <v>0.07349597837399102</v>
+        <v>0.1093690896932031</v>
       </c>
       <c r="K20">
-        <v>1.354328368844563</v>
+        <v>0.6598455437456892</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5463520210113657</v>
+        <v>0.4201374894736034</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.21180499955571</v>
+        <v>0.5273249959577981</v>
       </c>
       <c r="C21">
-        <v>0.3516758198920229</v>
+        <v>0.1824661756634498</v>
       </c>
       <c r="D21">
-        <v>0.5954681039251852</v>
+        <v>0.6515590377996148</v>
       </c>
       <c r="E21">
-        <v>0.2032317628633393</v>
+        <v>0.2431860349495523</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.525386661694739</v>
+        <v>2.49530524075513</v>
       </c>
       <c r="H21">
-        <v>1.446757201132073</v>
+        <v>1.958619558481786</v>
       </c>
       <c r="I21">
-        <v>1.487027870947742</v>
+        <v>1.736142814286396</v>
       </c>
       <c r="J21">
-        <v>0.07913894725101045</v>
+        <v>0.1101883797091219</v>
       </c>
       <c r="K21">
-        <v>1.538320853522407</v>
+        <v>0.7028255592888115</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6152293915374756</v>
+        <v>0.4346768757696395</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.307802218963133</v>
+        <v>0.5500660012428682</v>
       </c>
       <c r="C22">
-        <v>0.379620465564642</v>
+        <v>0.1886492236913284</v>
       </c>
       <c r="D22">
-        <v>0.6314678677572374</v>
+        <v>0.6581424738995736</v>
       </c>
       <c r="E22">
-        <v>0.2147110955166767</v>
+        <v>0.245165939480799</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.649123093587292</v>
+        <v>2.521851937004641</v>
       </c>
       <c r="H22">
-        <v>1.49893951957273</v>
+        <v>1.967708001258444</v>
       </c>
       <c r="I22">
-        <v>1.544394696524506</v>
+        <v>1.747798146266959</v>
       </c>
       <c r="J22">
-        <v>0.08295818134139665</v>
+        <v>0.1107604575472578</v>
       </c>
       <c r="K22">
-        <v>1.660664852520227</v>
+        <v>0.7312521438948636</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6612134881030869</v>
+        <v>0.444383411051291</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.256419173181911</v>
+        <v>0.5379061076454263</v>
       </c>
       <c r="C23">
-        <v>0.3646447379504139</v>
+        <v>0.1853409721041714</v>
       </c>
       <c r="D23">
-        <v>0.6121584533116504</v>
+        <v>0.6546057966221781</v>
       </c>
       <c r="E23">
-        <v>0.2085514057995681</v>
+        <v>0.2441010547801667</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.582654841566665</v>
+        <v>2.507609279159425</v>
       </c>
       <c r="H23">
-        <v>1.470873674032447</v>
+        <v>1.96280811021478</v>
       </c>
       <c r="I23">
-        <v>1.513548417737525</v>
+        <v>1.741532997698499</v>
       </c>
       <c r="J23">
-        <v>0.08090697719914175</v>
+        <v>0.1104517776054763</v>
       </c>
       <c r="K23">
-        <v>1.595158571719935</v>
+        <v>0.7160495453867384</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6365751050485358</v>
+        <v>0.4391841701813135</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.064838581488971</v>
+        <v>0.4923492546309376</v>
       </c>
       <c r="C24">
-        <v>0.3091831771454281</v>
+        <v>0.1729922453658617</v>
       </c>
       <c r="D24">
-        <v>0.5410186110373445</v>
+        <v>0.6417159657550258</v>
       </c>
       <c r="E24">
-        <v>0.1859093400612437</v>
+        <v>0.2402475199043153</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.339826746588841</v>
+        <v>2.455294723160364</v>
       </c>
       <c r="H24">
-        <v>1.369080982738069</v>
+        <v>1.94533126299234</v>
       </c>
       <c r="I24">
-        <v>1.401497591643817</v>
+        <v>1.718780718141204</v>
       </c>
       <c r="J24">
-        <v>0.07340579118259427</v>
+        <v>0.1093563171049396</v>
       </c>
       <c r="K24">
-        <v>1.35135274717598</v>
+        <v>0.6591487433531142</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5452410768230891</v>
+        <v>0.4199032992278688</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8633761450419399</v>
+        <v>0.4442735659873449</v>
       </c>
       <c r="C25">
-        <v>0.2515357144325776</v>
+        <v>0.160056252661434</v>
       </c>
       <c r="D25">
-        <v>0.4678891261562228</v>
+        <v>0.6288910743197107</v>
       </c>
       <c r="E25">
-        <v>0.1627346371134202</v>
+        <v>0.2364745093104155</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.094060271343949</v>
+        <v>2.402325312008884</v>
       </c>
       <c r="H25">
-        <v>1.267578765381074</v>
+        <v>1.928784995967021</v>
       </c>
       <c r="I25">
-        <v>1.289385920081557</v>
+        <v>1.696316358388515</v>
       </c>
       <c r="J25">
-        <v>0.06580394127776756</v>
+        <v>0.1083319180398163</v>
       </c>
       <c r="K25">
-        <v>1.09575385530286</v>
+        <v>0.599218247615056</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4502184515497873</v>
+        <v>0.399982918022161</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_157/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_157/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4097860205177142</v>
+        <v>0.7183395752500417</v>
       </c>
       <c r="C2">
-        <v>0.1508574413176973</v>
+        <v>0.2105054312880128</v>
       </c>
       <c r="D2">
-        <v>0.6203738845577647</v>
+        <v>0.4165579963717647</v>
       </c>
       <c r="E2">
-        <v>0.2340256789016379</v>
+        <v>0.1465468777653918</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.36627318573656</v>
+        <v>1.924416608830171</v>
       </c>
       <c r="H2">
-        <v>1.918577420600258</v>
+        <v>1.198791556737234</v>
       </c>
       <c r="I2">
-        <v>1.68155054552291</v>
+        <v>1.213063770946427</v>
       </c>
       <c r="J2">
-        <v>0.1077126063114058</v>
+        <v>0.06055375758180048</v>
       </c>
       <c r="K2">
-        <v>0.5563252529647684</v>
+        <v>0.9122932571272315</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3860665536174892</v>
+        <v>0.3825940625768069</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3869794967756945</v>
+        <v>0.6215943651116618</v>
       </c>
       <c r="C3">
-        <v>0.1448246039694112</v>
+        <v>0.1833823236524381</v>
       </c>
       <c r="D3">
-        <v>0.6151783919307405</v>
+        <v>0.3830799224690082</v>
       </c>
       <c r="E3">
-        <v>0.2325711805172332</v>
+        <v>0.136035464452462</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.343667298821401</v>
+        <v>1.815367042534291</v>
       </c>
       <c r="H3">
-        <v>1.912888664632703</v>
+        <v>1.155362555519162</v>
       </c>
       <c r="I3">
-        <v>1.672644897987176</v>
+        <v>1.164649478684062</v>
       </c>
       <c r="J3">
-        <v>0.1073769678851022</v>
+        <v>0.05717969887005125</v>
       </c>
       <c r="K3">
-        <v>0.5280216225579863</v>
+        <v>0.7902059885605581</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3771023688069874</v>
+        <v>0.3379318007005025</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3732552226685755</v>
+        <v>0.56280452607146</v>
       </c>
       <c r="C4">
-        <v>0.141219158328056</v>
+        <v>0.1670069432538099</v>
       </c>
       <c r="D4">
-        <v>0.6122727078315364</v>
+        <v>0.3630933846318811</v>
       </c>
       <c r="E4">
-        <v>0.2317792434477326</v>
+        <v>0.1297820604857769</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.330684751943863</v>
+        <v>1.750991866978296</v>
       </c>
       <c r="H4">
-        <v>1.910001162740258</v>
+        <v>1.130114774013293</v>
       </c>
       <c r="I4">
-        <v>1.667718394629865</v>
+        <v>1.136384970135722</v>
       </c>
       <c r="J4">
-        <v>0.1072123384018617</v>
+        <v>0.05518916796987483</v>
       </c>
       <c r="K4">
-        <v>0.5110197940196031</v>
+        <v>0.7161420525563642</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3718284715613791</v>
+        <v>0.3109981716713435</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3677327502520598</v>
+        <v>0.5389806396518679</v>
       </c>
       <c r="C5">
-        <v>0.139774697581359</v>
+        <v>0.1603958406320487</v>
       </c>
       <c r="D5">
-        <v>0.6111601645680764</v>
+        <v>0.3550813540133078</v>
       </c>
       <c r="E5">
-        <v>0.2314819642676014</v>
+        <v>0.1272806763091978</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.325619608601144</v>
+        <v>1.725361372050529</v>
       </c>
       <c r="H5">
-        <v>1.90897668212628</v>
+        <v>1.120161392126079</v>
       </c>
       <c r="I5">
-        <v>1.665846844577281</v>
+        <v>1.12521122404533</v>
       </c>
       <c r="J5">
-        <v>0.1071556774615772</v>
+        <v>0.05439710370949769</v>
       </c>
       <c r="K5">
-        <v>0.5041861982276288</v>
+        <v>0.6861578327801681</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3697372199704034</v>
+        <v>0.3001337313848182</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3668199962817482</v>
+        <v>0.5350321892162526</v>
       </c>
       <c r="C6">
-        <v>0.1395363419054831</v>
+        <v>0.1593015936019668</v>
       </c>
       <c r="D6">
-        <v>0.6109797500559893</v>
+        <v>0.3537586808810715</v>
       </c>
       <c r="E6">
-        <v>0.2314341382483853</v>
+        <v>0.1268680590719384</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.3247921458794</v>
+        <v>1.72114056636326</v>
       </c>
       <c r="H6">
-        <v>1.90881575936524</v>
+        <v>1.118528297414613</v>
       </c>
       <c r="I6">
-        <v>1.665544287262961</v>
+        <v>1.123375970252333</v>
       </c>
       <c r="J6">
-        <v>0.107146898809301</v>
+        <v>0.05426669846449883</v>
       </c>
       <c r="K6">
-        <v>0.5030572116770173</v>
+        <v>0.681190106504971</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3693934675070949</v>
+        <v>0.2983360881504353</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3731804599516408</v>
+        <v>0.562482714528528</v>
       </c>
       <c r="C7">
-        <v>0.1411995775150956</v>
+        <v>0.1669175427386165</v>
       </c>
       <c r="D7">
-        <v>0.6122574139399575</v>
+        <v>0.3629848078427074</v>
       </c>
       <c r="E7">
-        <v>0.2317751312087175</v>
+        <v>0.1297481404220377</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.33061552968627</v>
+        <v>1.750643822960853</v>
       </c>
       <c r="H7">
-        <v>1.909986730044693</v>
+        <v>1.129979208666583</v>
       </c>
       <c r="I7">
-        <v>1.667692603636659</v>
+        <v>1.136232912944308</v>
       </c>
       <c r="J7">
-        <v>0.107211532030103</v>
+        <v>0.05517841027934267</v>
       </c>
       <c r="K7">
-        <v>0.5109272498839914</v>
+        <v>0.7157369116248162</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3718000337147913</v>
+        <v>0.3108512146471583</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4018644809007412</v>
+        <v>0.6848419984018506</v>
       </c>
       <c r="C8">
-        <v>0.1487567976642623</v>
+        <v>0.201090627113544</v>
       </c>
       <c r="D8">
-        <v>0.6185234780629969</v>
+        <v>0.4048901040125941</v>
       </c>
       <c r="E8">
-        <v>0.2335031838922319</v>
+        <v>0.1428786995257596</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.358292166166649</v>
+        <v>1.886251640918573</v>
       </c>
       <c r="H8">
-        <v>1.916490255388055</v>
+        <v>1.183509741497829</v>
       </c>
       <c r="I8">
-        <v>1.678367373460496</v>
+        <v>1.196052505678871</v>
       </c>
       <c r="J8">
-        <v>0.1075882758524038</v>
+        <v>0.05937271897471419</v>
       </c>
       <c r="K8">
-        <v>0.5464879974888959</v>
+        <v>0.8699934128854352</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3829279498500924</v>
+        <v>0.3670856343161688</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4603262308855847</v>
+        <v>0.930653790508984</v>
       </c>
       <c r="C9">
-        <v>0.1643628578461005</v>
+        <v>0.2707059985245905</v>
       </c>
       <c r="D9">
-        <v>0.6330672387528011</v>
+        <v>0.4920955951835708</v>
       </c>
       <c r="E9">
-        <v>0.2376942717069355</v>
+        <v>0.1703926443488442</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.419708319390793</v>
+        <v>2.174927675943906</v>
       </c>
       <c r="H9">
-        <v>1.934051327117288</v>
+        <v>1.300771551161318</v>
       </c>
       <c r="I9">
-        <v>1.703607066646597</v>
+        <v>1.32610226224503</v>
       </c>
       <c r="J9">
-        <v>0.1086560096811908</v>
+        <v>0.06830610637160817</v>
       </c>
       <c r="K9">
-        <v>0.6192137078429312</v>
+        <v>1.181016050147718</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4065762814553722</v>
+        <v>0.4818217305965291</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5046304243093118</v>
+        <v>1.116370523801208</v>
       </c>
       <c r="C10">
-        <v>0.1763135471478847</v>
+        <v>0.3240420414785774</v>
       </c>
       <c r="D10">
-        <v>0.645129566068988</v>
+        <v>0.560013875401836</v>
       </c>
       <c r="E10">
-        <v>0.2412632340024388</v>
+        <v>0.1919465851119284</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.469220564738833</v>
+        <v>2.404331995675989</v>
       </c>
       <c r="H10">
-        <v>1.949893128302875</v>
+        <v>1.395996268909613</v>
       </c>
       <c r="I10">
-        <v>1.72479215044217</v>
+        <v>1.431155504586798</v>
       </c>
       <c r="J10">
-        <v>0.1096412642205138</v>
+        <v>0.0753995048259668</v>
       </c>
       <c r="K10">
-        <v>0.674478680470969</v>
+        <v>1.416863752330528</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4250673935122435</v>
+        <v>0.5697221820121143</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.525080375615147</v>
+        <v>1.202351421753491</v>
       </c>
       <c r="C11">
-        <v>0.1818568208604177</v>
+        <v>0.3489318522638598</v>
       </c>
       <c r="D11">
-        <v>0.6509165672180188</v>
+        <v>0.5919407374688603</v>
       </c>
       <c r="E11">
-        <v>0.2429933822659365</v>
+        <v>0.2021080617362827</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.492706316598998</v>
+        <v>2.51330599211559</v>
       </c>
       <c r="H11">
-        <v>1.957740439210909</v>
+        <v>1.441677906063262</v>
       </c>
       <c r="I11">
-        <v>1.735007073429756</v>
+        <v>1.481440358563631</v>
       </c>
       <c r="J11">
-        <v>0.1101331562459791</v>
+        <v>0.07876589768864051</v>
       </c>
       <c r="K11">
-        <v>0.7000208891273587</v>
+        <v>1.526281879507195</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4337228402673006</v>
+        <v>0.6107120597144231</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5328667552636261</v>
+        <v>1.235160622238908</v>
       </c>
       <c r="C12">
-        <v>0.1839713552601552</v>
+        <v>0.3584611102920974</v>
       </c>
       <c r="D12">
-        <v>0.6531510676435062</v>
+        <v>0.6041966306097493</v>
       </c>
       <c r="E12">
-        <v>0.2436638778091691</v>
+        <v>0.2060132276541893</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.501738667636857</v>
+        <v>2.555314387587998</v>
       </c>
       <c r="H12">
-        <v>1.960804271905914</v>
+        <v>1.459352469773506</v>
       </c>
       <c r="I12">
-        <v>1.738958507642934</v>
+        <v>1.500880512988431</v>
       </c>
       <c r="J12">
-        <v>0.1103257084417564</v>
+        <v>0.0800629843864229</v>
       </c>
       <c r="K12">
-        <v>0.7097509294144686</v>
+        <v>1.568070953785849</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4370355052211892</v>
+        <v>0.6263983845158947</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5311879337166374</v>
+        <v>1.228082859344369</v>
       </c>
       <c r="C13">
-        <v>0.1835152659159576</v>
+        <v>0.3564039508489998</v>
       </c>
       <c r="D13">
-        <v>0.6526679119235439</v>
+        <v>0.6015494261967831</v>
       </c>
       <c r="E13">
-        <v>0.2435187930351432</v>
+        <v>0.2051695331814756</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.499787209100418</v>
+        <v>2.546232779955659</v>
       </c>
       <c r="H13">
-        <v>1.960140317612769</v>
+        <v>1.455528603694972</v>
       </c>
       <c r="I13">
-        <v>1.738103789347022</v>
+        <v>1.49667533855002</v>
       </c>
       <c r="J13">
-        <v>0.1102839594228087</v>
+        <v>0.07978260340275511</v>
       </c>
       <c r="K13">
-        <v>0.7076528226932339</v>
+        <v>1.559054322838193</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4363205055787915</v>
+        <v>0.6230124034456139</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5257201160245302</v>
+        <v>1.205045430398371</v>
       </c>
       <c r="C14">
-        <v>0.1820304755929101</v>
+        <v>0.3497136605337801</v>
       </c>
       <c r="D14">
-        <v>0.6510995374616471</v>
+        <v>0.5929456049377961</v>
       </c>
       <c r="E14">
-        <v>0.2430482372058549</v>
+        <v>0.2024281586508963</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.493446629267254</v>
+        <v>2.516746693749752</v>
       </c>
       <c r="H14">
-        <v>1.957990653747629</v>
+        <v>1.443124249503597</v>
       </c>
       <c r="I14">
-        <v>1.735330490468641</v>
+        <v>1.483031487381254</v>
       </c>
       <c r="J14">
-        <v>0.1101488717014192</v>
+        <v>0.07887214910948614</v>
       </c>
       <c r="K14">
-        <v>0.7008202279600084</v>
+        <v>1.529712485316963</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4339946731315294</v>
+        <v>0.6119991672843383</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5223764420962027</v>
+        <v>1.190968001860199</v>
       </c>
       <c r="C15">
-        <v>0.1811230079790676</v>
+        <v>0.3456296484399672</v>
       </c>
       <c r="D15">
-        <v>0.6501444736605606</v>
+        <v>0.5876976742451916</v>
       </c>
       <c r="E15">
-        <v>0.2427620039446694</v>
+        <v>0.200756628801706</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.489580930168984</v>
+        <v>2.498784746833138</v>
       </c>
       <c r="H15">
-        <v>1.956685935584744</v>
+        <v>1.435576312506612</v>
       </c>
       <c r="I15">
-        <v>1.733642613959233</v>
+        <v>1.474727354243484</v>
       </c>
       <c r="J15">
-        <v>0.1100669448574081</v>
+        <v>0.07831744480861857</v>
       </c>
       <c r="K15">
-        <v>0.6966425876318851</v>
+        <v>1.511787493280792</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4325745957857805</v>
+        <v>0.6052752743888306</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5032999143734571</v>
+        <v>1.110784496482353</v>
       </c>
       <c r="C16">
-        <v>0.1759534356480685</v>
+        <v>0.3224292030221534</v>
       </c>
       <c r="D16">
-        <v>0.6447574026468601</v>
+        <v>0.557949589683119</v>
       </c>
       <c r="E16">
-        <v>0.241152309612481</v>
+        <v>0.1912901793129151</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.467705116810066</v>
+        <v>2.397309717790876</v>
       </c>
       <c r="H16">
-        <v>1.94939318938043</v>
+        <v>1.393061426023309</v>
       </c>
       <c r="I16">
-        <v>1.724136222559025</v>
+        <v>1.427922777925801</v>
       </c>
       <c r="J16">
-        <v>0.1096099971743811</v>
+        <v>0.07518249779401032</v>
       </c>
       <c r="K16">
-        <v>0.6728175213793861</v>
+        <v>1.409759916772884</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4245066431591056</v>
+        <v>0.5670652586015734</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4916727577701749</v>
+        <v>1.062001716310448</v>
       </c>
       <c r="C17">
-        <v>0.1728094731599299</v>
+        <v>0.3083664865818605</v>
       </c>
       <c r="D17">
-        <v>0.6415293768519348</v>
+        <v>0.5399760931974242</v>
       </c>
       <c r="E17">
-        <v>0.2401921162199017</v>
+        <v>0.185578190351336</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.454531799089864</v>
+        <v>2.33629393870001</v>
       </c>
       <c r="H17">
-        <v>1.945083505773823</v>
+        <v>1.367609799233037</v>
       </c>
       <c r="I17">
-        <v>1.718452461797384</v>
+        <v>1.39987577470194</v>
       </c>
       <c r="J17">
-        <v>0.1093408658583996</v>
+        <v>0.0732965790733644</v>
       </c>
       <c r="K17">
-        <v>0.6583045255649154</v>
+        <v>1.347747831286114</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4196196333788151</v>
+        <v>0.543895320421349</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4850129681661599</v>
+        <v>1.034081820203539</v>
       </c>
       <c r="C18">
-        <v>0.1710112026275397</v>
+        <v>0.3003360867168681</v>
       </c>
       <c r="D18">
-        <v>0.639700920373599</v>
+        <v>0.5297340508619186</v>
       </c>
       <c r="E18">
-        <v>0.2396498731850869</v>
+        <v>0.1823259681636884</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.447045414080151</v>
+        <v>2.301628700860817</v>
       </c>
       <c r="H18">
-        <v>1.942664999514705</v>
+        <v>1.353190793479541</v>
       </c>
       <c r="I18">
-        <v>1.715237679479884</v>
+        <v>1.383976194067955</v>
       </c>
       <c r="J18">
-        <v>0.1091901813845553</v>
+        <v>0.07222483904766364</v>
       </c>
       <c r="K18">
-        <v>0.6499948640859543</v>
+        <v>1.312277408631132</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4168316980339384</v>
+        <v>0.5306617285656614</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4827628631303185</v>
+        <v>1.024651435338171</v>
       </c>
       <c r="C19">
-        <v>0.1704040642438258</v>
+        <v>0.297626711090146</v>
       </c>
       <c r="D19">
-        <v>0.6390866836469513</v>
+        <v>0.5262822201231359</v>
       </c>
       <c r="E19">
-        <v>0.2394680026406846</v>
+        <v>0.1812303448073607</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.4445261936836</v>
+        <v>2.289963136725731</v>
       </c>
       <c r="H19">
-        <v>1.941856490702349</v>
+        <v>1.348345526650178</v>
       </c>
       <c r="I19">
-        <v>1.71415854120832</v>
+        <v>1.378631628230963</v>
       </c>
       <c r="J19">
-        <v>0.1091398685788008</v>
+        <v>0.07186413285914739</v>
       </c>
       <c r="K19">
-        <v>0.6471878538652049</v>
+        <v>1.30030021678192</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4158916920895805</v>
+        <v>0.5261964806439465</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4929076075096077</v>
+        <v>1.06718013385796</v>
       </c>
       <c r="C20">
-        <v>0.1731431124534311</v>
+        <v>0.3098573774594513</v>
       </c>
       <c r="D20">
-        <v>0.6418700853462269</v>
+        <v>0.541879361070329</v>
       </c>
       <c r="E20">
-        <v>0.2402932919145684</v>
+        <v>0.1861827677022845</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.455924745721404</v>
+        <v>2.342744185393116</v>
       </c>
       <c r="H20">
-        <v>1.945536036527869</v>
+        <v>1.370296139342855</v>
       </c>
       <c r="I20">
-        <v>1.719051879728667</v>
+        <v>1.402837108660492</v>
       </c>
       <c r="J20">
-        <v>0.1093690896932031</v>
+        <v>0.07349597837399102</v>
       </c>
       <c r="K20">
-        <v>0.6598455437456892</v>
+        <v>1.354328368844563</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4201374894736034</v>
+        <v>0.5463520210113657</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5273249959577981</v>
+        <v>1.211804999555909</v>
       </c>
       <c r="C21">
-        <v>0.1824661756634498</v>
+        <v>0.3516758198920797</v>
       </c>
       <c r="D21">
-        <v>0.6515590377996148</v>
+        <v>0.5954681039254694</v>
       </c>
       <c r="E21">
-        <v>0.2431860349495523</v>
+        <v>0.2032317628633464</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.49530524075513</v>
+        <v>2.525386661694796</v>
       </c>
       <c r="H21">
-        <v>1.958619558481786</v>
+        <v>1.446757201132073</v>
       </c>
       <c r="I21">
-        <v>1.736142814286396</v>
+        <v>1.48702787094777</v>
       </c>
       <c r="J21">
-        <v>0.1101883797091219</v>
+        <v>0.07913894725087545</v>
       </c>
       <c r="K21">
-        <v>0.7028255592888115</v>
+        <v>1.538320853522322</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4346768757696395</v>
+        <v>0.6152293915374685</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5500660012428682</v>
+        <v>1.307802218963246</v>
       </c>
       <c r="C22">
-        <v>0.1886492236913284</v>
+        <v>0.3796204655644431</v>
       </c>
       <c r="D22">
-        <v>0.6581424738995736</v>
+        <v>0.6314678677576069</v>
       </c>
       <c r="E22">
-        <v>0.245165939480799</v>
+        <v>0.2147110955166482</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.521851937004641</v>
+        <v>2.649123093587292</v>
       </c>
       <c r="H22">
-        <v>1.967708001258444</v>
+        <v>1.498939519572872</v>
       </c>
       <c r="I22">
-        <v>1.747798146266959</v>
+        <v>1.544394696524478</v>
       </c>
       <c r="J22">
-        <v>0.1107604575472578</v>
+        <v>0.08295818134151745</v>
       </c>
       <c r="K22">
-        <v>0.7312521438948636</v>
+        <v>1.660664852520227</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.444383411051291</v>
+        <v>0.6612134881030869</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5379061076454263</v>
+        <v>1.256419173181882</v>
       </c>
       <c r="C23">
-        <v>0.1853409721041714</v>
+        <v>0.3646447379499875</v>
       </c>
       <c r="D23">
-        <v>0.6546057966221781</v>
+        <v>0.612158453311622</v>
       </c>
       <c r="E23">
-        <v>0.2441010547801667</v>
+        <v>0.2085514057995681</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.507609279159425</v>
+        <v>2.582654841566693</v>
       </c>
       <c r="H23">
-        <v>1.96280811021478</v>
+        <v>1.470873674032447</v>
       </c>
       <c r="I23">
-        <v>1.741532997698499</v>
+        <v>1.513548417737525</v>
       </c>
       <c r="J23">
-        <v>0.1104517776054763</v>
+        <v>0.08090697719925544</v>
       </c>
       <c r="K23">
-        <v>0.7160495453867384</v>
+        <v>1.595158571719907</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4391841701813135</v>
+        <v>0.6365751050485358</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4923492546309376</v>
+        <v>1.064838581489028</v>
       </c>
       <c r="C24">
-        <v>0.1729922453658617</v>
+        <v>0.3091831771456555</v>
       </c>
       <c r="D24">
-        <v>0.6417159657550258</v>
+        <v>0.5410186110373445</v>
       </c>
       <c r="E24">
-        <v>0.2402475199043153</v>
+        <v>0.1859093400612934</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.455294723160364</v>
+        <v>2.33982674658904</v>
       </c>
       <c r="H24">
-        <v>1.94533126299234</v>
+        <v>1.369080982738097</v>
       </c>
       <c r="I24">
-        <v>1.718780718141204</v>
+        <v>1.401497591643832</v>
       </c>
       <c r="J24">
-        <v>0.1093563171049396</v>
+        <v>0.07340579118242374</v>
       </c>
       <c r="K24">
-        <v>0.6591487433531142</v>
+        <v>1.351352747176094</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4199032992278688</v>
+        <v>0.545241076823082</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4442735659873449</v>
+        <v>0.8633761450417694</v>
       </c>
       <c r="C25">
-        <v>0.160056252661434</v>
+        <v>0.2515357144325776</v>
       </c>
       <c r="D25">
-        <v>0.6288910743197107</v>
+        <v>0.467889126156507</v>
       </c>
       <c r="E25">
-        <v>0.2364745093104155</v>
+        <v>0.162734637113445</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.402325312008884</v>
+        <v>2.094060271343949</v>
       </c>
       <c r="H25">
-        <v>1.928784995967021</v>
+        <v>1.267578765381103</v>
       </c>
       <c r="I25">
-        <v>1.696316358388515</v>
+        <v>1.289385920081571</v>
       </c>
       <c r="J25">
-        <v>0.1083319180398163</v>
+        <v>0.06580394127785283</v>
       </c>
       <c r="K25">
-        <v>0.599218247615056</v>
+        <v>1.095753855302888</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.399982918022161</v>
+        <v>0.4502184515497802</v>
       </c>
       <c r="N25">
         <v>0</v>
